--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>2023-2024</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,23 +548,26 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>700</v>
+        <v>0.02</v>
       </c>
       <c r="M2" t="n">
-        <v>699.9999999999964</v>
+        <v>1899.979999999996</v>
       </c>
       <c r="N2" t="n">
         <v>699.9999999999964</v>
       </c>
+      <c r="O2" t="n">
+        <v>1199.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -616,6 +624,9 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,7 +666,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -667,10 +678,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +725,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -726,6 +740,9 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,6 +801,9 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -840,6 +860,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -879,7 +902,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -891,10 +914,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +959,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -948,6 +974,9 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1004,6 +1033,9 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1058,6 +1090,9 @@
       <c r="N11" t="n">
         <v>1.455191522836685e-11</v>
       </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1095,7 +1130,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1107,10 +1142,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -1149,7 +1187,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1164,6 +1202,9 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1222,6 +1263,9 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1261,7 +1305,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1273,10 +1317,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -1317,7 +1364,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1332,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,6 +1438,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1444,6 +1497,9 @@
       <c r="N18" t="n">
         <v>0.00131775700901926</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1500,6 +1556,9 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1539,7 +1598,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9135</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1554,6 +1613,9 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1657,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1607,10 +1669,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
@@ -1649,7 +1714,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1664,6 +1729,9 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1703,7 +1771,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1718,6 +1786,9 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1757,7 +1828,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16531.8</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1772,6 +1843,9 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1813,7 +1887,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1828,6 +1902,9 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1946,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7776</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1884,6 +1961,9 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +2005,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76608</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1940,6 +2020,9 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1981,7 +2064,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1993,10 +2076,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
@@ -2037,7 +2123,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2052,6 +2138,9 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2093,7 +2182,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2108,6 +2197,9 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2149,7 +2241,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8640</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2164,6 +2256,9 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2222,6 +2317,9 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2261,7 +2359,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4012.5</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2276,6 +2374,9 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2418,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2332,6 +2433,9 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2371,7 +2475,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29190</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2386,6 +2490,9 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2534,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2439,10 +2546,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
@@ -2481,7 +2591,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2493,10 +2603,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
@@ -2554,6 +2667,9 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2593,7 +2709,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2608,6 +2724,9 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,7 +2768,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1912.5</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2661,10 +2780,13 @@
         <v>4500</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2587.5</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2587.5</v>
       </c>
     </row>
     <row r="41">
@@ -2722,6 +2844,9 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2776,6 +2901,9 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2815,7 +2943,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3516.98</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2830,6 +2958,9 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2871,7 +3002,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>879.28</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2886,6 +3017,9 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3061,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2942,6 +3076,9 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2981,7 +3118,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2993,10 +3130,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
@@ -3052,6 +3192,9 @@
       <c r="N47" t="n">
         <v>0</v>
       </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3108,6 +3251,9 @@
       <c r="N48" t="n">
         <v>0</v>
       </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3147,7 +3293,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>14586</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3162,6 +3308,9 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3203,7 +3352,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3218,6 +3367,9 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3411,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3274,6 +3426,9 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,6 +3487,9 @@
       <c r="N52" t="n">
         <v>0</v>
       </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3388,6 +3546,9 @@
       <c r="N53" t="n">
         <v>0</v>
       </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3444,6 +3605,9 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3500,6 +3664,9 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3556,6 +3723,9 @@
       <c r="N56" t="n">
         <v>0</v>
       </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3612,6 +3782,9 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3668,6 +3841,9 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3707,7 +3883,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>16166.72</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3722,6 +3898,9 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3780,6 +3959,9 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3834,6 +4016,9 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3871,7 +4056,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3886,6 +4071,9 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3927,7 +4115,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>6828.88</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3942,6 +4130,9 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4000,6 +4191,9 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4056,6 +4250,9 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4112,6 +4309,9 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4149,7 +4349,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4164,6 +4364,9 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4205,7 +4408,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4220,6 +4423,9 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4278,6 +4484,9 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4317,7 +4526,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2932</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4332,6 +4541,9 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4390,6 +4602,9 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4427,7 +4642,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4442,6 +4657,9 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4483,7 +4701,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4498,6 +4716,9 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4760,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4554,6 +4775,9 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4595,7 +4819,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4610,6 +4834,9 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4651,7 +4878,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2951.74</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4666,6 +4893,9 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,7 +4937,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>6785.2</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4722,6 +4952,9 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4763,7 +4996,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4778,6 +5011,9 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +5055,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4834,6 +5070,9 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4890,6 +5129,9 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4946,6 +5188,9 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5002,6 +5247,9 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5058,6 +5306,9 @@
       <c r="N83" t="n">
         <v>0</v>
       </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5097,7 +5348,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5625.74</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -5112,6 +5363,9 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5168,6 +5422,9 @@
       <c r="N85" t="n">
         <v>0</v>
       </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5224,6 +5481,9 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5263,7 +5523,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>8928.58</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -5278,6 +5538,9 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,6 +5597,9 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5388,6 +5654,9 @@
       <c r="N89" t="n">
         <v>0</v>
       </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5444,6 +5713,9 @@
       <c r="N90" t="n">
         <v>2.91038304567337e-11</v>
       </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5500,6 +5772,9 @@
       <c r="N91" t="n">
         <v>0</v>
       </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5556,6 +5831,9 @@
       <c r="N92" t="n">
         <v>0</v>
       </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5612,6 +5890,9 @@
       <c r="N93" t="n">
         <v>0</v>
       </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5668,6 +5949,9 @@
       <c r="N94" t="n">
         <v>0</v>
       </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5707,7 +5991,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5722,6 +6006,9 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5763,7 +6050,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>5242.84</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5778,6 +6065,9 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5817,7 +6107,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>30590.84</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -5832,6 +6122,9 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5873,7 +6166,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3710586</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5888,6 +6181,9 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5929,7 +6225,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>3618760</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -5944,6 +6240,9 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5985,7 +6284,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>6114.42</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6000,6 +6299,9 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6039,7 +6341,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2871.42</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6054,6 +6356,9 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6093,7 +6398,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>617.16</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6108,6 +6413,9 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6147,7 +6455,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -6159,10 +6467,13 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="104">
@@ -6203,7 +6514,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1414.26</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6218,6 +6529,9 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6257,7 +6571,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>8257.16</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6272,6 +6586,9 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6313,7 +6630,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -6325,10 +6642,13 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="107">
@@ -6369,7 +6689,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>26133.84</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6384,6 +6704,9 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6425,7 +6748,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1306.58</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -6440,6 +6763,9 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6807,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>10394.26</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -6496,6 +6822,9 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6552,6 +6881,9 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6608,6 +6940,9 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6664,6 +6999,9 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6720,6 +7058,9 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6759,7 +7100,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6774,6 +7115,9 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6815,7 +7159,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6830,6 +7174,9 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6871,7 +7218,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>14839.7</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6886,6 +7233,9 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6944,6 +7294,9 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6983,7 +7336,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -6998,6 +7351,9 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +7395,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>7114.3</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7054,6 +7410,9 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7095,7 +7454,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>13852.85</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7110,6 +7469,9 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7151,7 +7513,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7166,6 +7528,9 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7207,7 +7572,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -7222,6 +7587,9 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7263,7 +7631,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -7275,10 +7643,13 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="124">
@@ -7319,7 +7690,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -7331,11 +7702,14 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>0.02000000001455192</v>
       </c>
       <c r="N124" t="n">
         <v>1.455191522836685e-11</v>
       </c>
+      <c r="O124" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7375,7 +7749,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -7390,6 +7764,9 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7429,7 +7806,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -7444,6 +7821,9 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7485,7 +7865,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7500,6 +7880,9 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7541,7 +7924,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -7556,6 +7939,9 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7597,7 +7983,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -7612,6 +7998,9 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7653,7 +8042,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7668,6 +8057,9 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7709,7 +8101,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7724,6 +8116,9 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7765,7 +8160,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -7780,6 +8175,9 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7821,7 +8219,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>3889.28</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7836,6 +8234,9 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7877,7 +8278,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -7892,6 +8293,9 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7933,7 +8337,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -7948,6 +8352,9 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7989,7 +8396,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8004,6 +8411,9 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8043,7 +8453,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8058,6 +8468,9 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8099,7 +8512,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>10688.4</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8114,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8155,7 +8571,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -8170,6 +8586,9 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8211,7 +8630,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8226,6 +8645,9 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8267,7 +8689,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -8282,6 +8704,9 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8323,7 +8748,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>26077.4</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -8338,6 +8763,9 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8379,7 +8807,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>2307550</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -8394,6 +8822,9 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8435,7 +8866,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>21231.7</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -8450,6 +8881,9 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8489,7 +8923,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8504,6 +8938,9 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8545,7 +8982,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>32849.22</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -8560,6 +8997,9 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +9041,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>12960.9</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -8616,6 +9056,9 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8657,7 +9100,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>15015</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -8672,6 +9115,9 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8711,7 +9157,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>13639.5</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -8726,6 +9172,9 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8767,7 +9216,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2571.42</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -8782,6 +9231,9 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8823,7 +9275,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -8838,6 +9290,9 @@
         <v>0</v>
       </c>
       <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8877,7 +9332,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -8892,6 +9347,9 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8931,7 +9389,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>67370.95</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -8946,6 +9404,9 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8985,7 +9446,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>22429.36</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9000,6 +9461,9 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9039,7 +9503,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>3382.37</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9054,6 +9518,9 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9093,7 +9560,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>212500</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -9108,6 +9575,9 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9147,7 +9617,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>32725</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -9162,6 +9632,9 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9201,7 +9674,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1187.01</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -9216,6 +9689,9 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9255,7 +9731,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>105655</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -9270,6 +9746,9 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9309,7 +9788,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>4653.75</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -9324,6 +9803,9 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9363,7 +9845,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>263088</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -9378,6 +9860,9 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9417,7 +9902,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>30520.01</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -9432,6 +9917,9 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9471,7 +9959,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>28000.01</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -9486,6 +9974,9 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9525,7 +10016,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>30520.01</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -9540,6 +10031,9 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9579,7 +10073,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>952.01</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -9594,6 +10088,9 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9633,7 +10130,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -9648,6 +10145,9 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9687,7 +10187,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>24804</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -9702,6 +10202,9 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9741,7 +10244,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>5599.99</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -9756,6 +10259,9 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9796,7 +10302,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>43999.99</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -9811,6 +10317,9 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9852,7 +10361,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>107200.01</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -9867,6 +10376,9 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9906,7 +10418,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>34000.01</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -9921,6 +10433,9 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9962,7 +10477,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>124950</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -9977,6 +10492,9 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10018,7 +10536,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>179010</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -10033,6 +10551,9 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10074,7 +10595,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>6103</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -10089,6 +10610,9 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +10654,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>4972.5</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10145,6 +10669,9 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10184,7 +10711,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>7650</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10199,6 +10726,9 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10238,7 +10768,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>3230</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10253,6 +10783,9 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10292,7 +10825,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>3740</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10307,6 +10840,9 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10346,7 +10882,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -10361,6 +10897,9 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10402,7 +10941,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>16294.5</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10417,6 +10956,9 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10456,7 +10998,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1381.25</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -10471,6 +11013,9 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10510,7 +11055,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>3038.75</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -10525,6 +11070,9 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10564,7 +11112,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>3867.5</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -10579,6 +11127,9 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10619,7 +11170,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1491.75</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -10634,6 +11185,9 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10673,7 +11227,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -10688,6 +11242,9 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10727,7 +11284,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -10742,6 +11299,9 @@
         <v>0</v>
       </c>
       <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10781,7 +11341,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>3213</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -10796,6 +11356,9 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10835,7 +11398,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>106250</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -10850,6 +11413,9 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10889,7 +11455,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>21165</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -10904,6 +11470,9 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10945,7 +11514,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>5525</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -10960,6 +11529,9 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11001,7 +11573,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>3187.5</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11016,6 +11588,9 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11055,7 +11630,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>8880</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -11070,6 +11645,9 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11111,7 +11689,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>23920.01</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -11126,6 +11704,9 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11167,7 +11748,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>4999.99</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -11182,6 +11763,9 @@
         <v>0</v>
       </c>
       <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11223,7 +11807,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>9720</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -11238,6 +11822,9 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11277,7 +11864,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -11292,6 +11879,9 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11331,7 +11921,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -11346,6 +11936,9 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11387,7 +11980,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -11402,6 +11995,9 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11443,7 +12039,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -11458,6 +12054,9 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11499,7 +12098,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -11514,6 +12113,9 @@
         <v>0</v>
       </c>
       <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11555,7 +12157,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -11570,6 +12172,9 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11611,7 +12216,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -11626,6 +12231,9 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11667,7 +12275,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>68880</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -11682,6 +12290,9 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11723,7 +12334,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>157200</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -11738,6 +12349,9 @@
         <v>0</v>
       </c>
       <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11779,7 +12393,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -11794,6 +12408,9 @@
         <v>0</v>
       </c>
       <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11835,7 +12452,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>17872.01</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -11850,6 +12467,9 @@
         <v>0</v>
       </c>
       <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11891,7 +12511,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>41887.99</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -11906,6 +12526,9 @@
         <v>0</v>
       </c>
       <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11947,7 +12570,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>9499.99</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -11962,6 +12585,9 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12003,7 +12629,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>12540</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -12018,6 +12644,9 @@
         <v>0</v>
       </c>
       <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12059,7 +12688,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -12074,6 +12703,9 @@
         <v>0</v>
       </c>
       <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12115,7 +12747,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>4824</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -12130,6 +12762,9 @@
         <v>0</v>
       </c>
       <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12171,7 +12806,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -12186,6 +12821,9 @@
         <v>0</v>
       </c>
       <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12227,7 +12865,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -12242,6 +12880,9 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12283,7 +12924,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>18559.99</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -12298,6 +12939,9 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12339,7 +12983,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>2800.01</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -12354,6 +12998,9 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12395,7 +13042,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -12410,6 +13057,9 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12451,7 +13101,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>139999.99</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -12466,6 +13116,9 @@
         <v>0</v>
       </c>
       <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12507,7 +13160,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -12522,6 +13175,9 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12563,7 +13219,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>24400.01</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -12578,6 +13234,9 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12619,7 +13278,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -12634,6 +13293,9 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12673,7 +13335,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>10260</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -12688,6 +13350,9 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12727,7 +13392,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -12742,6 +13407,9 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12781,7 +13449,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>24480</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -12796,6 +13464,9 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12835,7 +13506,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -12850,6 +13521,9 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12889,7 +13563,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>65100</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -12904,6 +13578,9 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12943,7 +13620,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>85600.00999999999</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -12958,6 +13635,9 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12999,7 +13679,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>13260</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -13014,6 +13694,9 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13053,7 +13736,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>17599.99</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -13068,6 +13751,9 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13107,7 +13793,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>11760</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -13122,6 +13808,9 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13161,7 +13850,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>571.99</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -13176,6 +13865,9 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13215,7 +13907,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>3115.99</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13230,6 +13922,9 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13269,7 +13964,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>45720</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -13284,6 +13979,9 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13323,7 +14021,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -13338,6 +14036,9 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13377,7 +14078,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -13392,6 +14093,9 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13431,7 +14135,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -13446,6 +14150,9 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13485,7 +14192,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>158374.11</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -13500,6 +14207,9 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13539,7 +14249,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>29767.5</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -13554,6 +14264,9 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13593,7 +14306,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>20475</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -13608,6 +14321,9 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13647,7 +14363,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>38892</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -13662,6 +14378,9 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13701,7 +14420,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>15669.5</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -13716,6 +14435,9 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13755,7 +14477,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>49045.92</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -13770,6 +14492,9 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13809,7 +14534,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>200558.76</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -13824,6 +14549,9 @@
         <v>0</v>
       </c>
       <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13863,7 +14591,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>120534.66</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -13878,6 +14606,9 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13917,7 +14648,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>180116.43</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -13932,6 +14663,9 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13971,7 +14705,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>87875.03999999999</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -13986,6 +14720,9 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14025,7 +14762,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>229743.78</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14040,6 +14777,9 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14079,7 +14819,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>49852.5</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14094,6 +14834,9 @@
         <v>0</v>
       </c>
       <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14133,7 +14876,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14148,6 +14891,9 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14187,7 +14933,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>97879.59</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14202,6 +14948,9 @@
         <v>0</v>
       </c>
       <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14241,7 +14990,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>44529.36</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -14256,6 +15005,9 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14295,7 +15047,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>24225</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -14310,6 +15062,9 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14349,7 +15104,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>58718</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -14364,6 +15119,9 @@
         <v>0</v>
       </c>
       <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14403,7 +15161,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>602236.05</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -14418,6 +15176,9 @@
         <v>0</v>
       </c>
       <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14457,7 +15218,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>408000</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -14472,6 +15233,9 @@
         <v>0</v>
       </c>
       <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14511,7 +15275,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>507284.25</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -14526,6 +15290,9 @@
         <v>0</v>
       </c>
       <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14565,7 +15332,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>36645.93</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -14580,6 +15347,9 @@
         <v>0</v>
       </c>
       <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14619,7 +15389,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>92820</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -14634,6 +15404,9 @@
         <v>0</v>
       </c>
       <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14673,7 +15446,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>33468.75</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -14688,6 +15461,9 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14727,7 +15503,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>93712.5</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -14742,6 +15518,9 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14781,7 +15560,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>183468.66</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -14796,6 +15575,9 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14835,7 +15617,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>30929.58</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -14850,6 +15632,9 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14889,7 +15674,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>73702.14</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -14904,6 +15689,9 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14943,7 +15731,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>213290.79</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -14958,6 +15746,9 @@
         <v>0</v>
       </c>
       <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14997,7 +15788,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>31683.75</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -15012,6 +15803,9 @@
         <v>0</v>
       </c>
       <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15051,7 +15845,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>26922.9</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -15066,6 +15860,9 @@
         <v>0</v>
       </c>
       <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15105,7 +15902,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>18275</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -15120,6 +15917,9 @@
         <v>0</v>
       </c>
       <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15159,7 +15959,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>123250</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -15174,6 +15974,9 @@
         <v>0</v>
       </c>
       <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15213,7 +16016,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>30827.12</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -15228,6 +16031,9 @@
         <v>0</v>
       </c>
       <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15267,7 +16073,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>70720</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -15282,6 +16088,9 @@
         <v>0</v>
       </c>
       <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15321,7 +16130,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>63537.5</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -15336,6 +16145,9 @@
         <v>0</v>
       </c>
       <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15375,7 +16187,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>119510</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -15390,6 +16202,9 @@
         <v>0</v>
       </c>
       <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15429,7 +16244,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>114058.32</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -15444,6 +16259,9 @@
         <v>0</v>
       </c>
       <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15483,7 +16301,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -15498,6 +16316,9 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15537,7 +16358,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>799999.99</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -15552,6 +16373,9 @@
         <v>0</v>
       </c>
       <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15591,7 +16415,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -15606,6 +16430,9 @@
         <v>0</v>
       </c>
       <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15645,7 +16472,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -15660,6 +16487,9 @@
         <v>0</v>
       </c>
       <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15699,7 +16529,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>37999.99</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -15714,6 +16544,9 @@
         <v>0</v>
       </c>
       <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15753,7 +16586,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>58800</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -15768,6 +16601,9 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15807,7 +16643,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>40639.99</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -15822,6 +16658,9 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15861,7 +16700,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>37600.01</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -15876,6 +16715,9 @@
         <v>0</v>
       </c>
       <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15915,7 +16757,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -15930,6 +16772,9 @@
         <v>0</v>
       </c>
       <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15969,7 +16814,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>176640</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -15984,6 +16829,9 @@
         <v>0</v>
       </c>
       <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16023,7 +16871,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>52000.01</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -16038,6 +16886,9 @@
         <v>0</v>
       </c>
       <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16079,7 +16930,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -16094,6 +16945,9 @@
         <v>0</v>
       </c>
       <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16135,7 +16989,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>112000.01</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -16150,6 +17004,9 @@
         <v>0</v>
       </c>
       <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16191,7 +17048,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>76000.00999999999</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -16206,6 +17063,9 @@
         <v>0</v>
       </c>
       <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16245,7 +17105,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -16260,6 +17120,9 @@
         <v>0</v>
       </c>
       <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16301,7 +17164,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>337999.99</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -16316,6 +17179,9 @@
         <v>0</v>
       </c>
       <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16357,7 +17223,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>6760.01</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -16372,6 +17238,9 @@
         <v>0</v>
       </c>
       <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16413,7 +17282,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -16428,6 +17297,9 @@
         <v>0</v>
       </c>
       <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16469,7 +17341,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -16484,6 +17356,9 @@
         <v>0</v>
       </c>
       <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16525,7 +17400,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>94744.00999999999</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -16540,6 +17415,9 @@
         <v>0</v>
       </c>
       <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16581,7 +17459,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>7150.01</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -16596,6 +17474,9 @@
         <v>0</v>
       </c>
       <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16637,7 +17518,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>160000.01</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -16652,6 +17533,9 @@
         <v>0</v>
       </c>
       <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16693,7 +17577,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>945888</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -16708,6 +17592,9 @@
         <v>0</v>
       </c>
       <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16747,7 +17634,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -16762,6 +17649,9 @@
         <v>0</v>
       </c>
       <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16801,7 +17691,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>63040.01</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -16816,6 +17706,9 @@
         <v>0</v>
       </c>
       <c r="N297" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16855,7 +17748,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>40080</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -16870,6 +17763,9 @@
         <v>0</v>
       </c>
       <c r="N298" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16909,7 +17805,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>150400.01</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -16924,6 +17820,9 @@
         <v>0</v>
       </c>
       <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16963,7 +17862,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>36400.01</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -16978,6 +17877,9 @@
         <v>0</v>
       </c>
       <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17017,7 +17919,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1918.8</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
@@ -17032,6 +17934,9 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
         <v>0</v>
       </c>
     </row>

--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>16166.72</v>
+        <v>12125.04</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6828.88</v>
+        <v>5121.67</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2932</v>
+        <v>2199</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3800</v>
+        <v>2850</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6720</v>
+        <v>5040</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5100</v>
+        <v>3825</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>12600</v>
+        <v>9450</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2951.74</v>
+        <v>0.03</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6785.2</v>
+        <v>5088.9</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>5625.74</v>
+        <v>0.03</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>8928.58</v>
+        <v>0.01</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>5242.84</v>
+        <v>-0.02</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>30590.84</v>
+        <v>-0.02</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3710586</v>
+        <v>2782939.5</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3618760</v>
+        <v>2714070</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6114.42</v>
+        <v>-0.01</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2871.42</v>
+        <v>-0.01</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>617.16</v>
+        <v>0.02</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1414.26</v>
+        <v>-0.03</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>8257.16</v>
+        <v>0.02</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>26133.84</v>
+        <v>-0.02</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1306.58</v>
+        <v>0.01</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>10394.26</v>
+        <v>-0.03</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>147000</v>
+        <v>117600</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>14839.7</v>
+        <v>7419.84</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>11260</v>
+        <v>9008</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>7114.3</v>
+        <v>3557.16</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>13852.85</v>
+        <v>6926.42</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>16586</v>
+        <v>13268.8</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>14500</v>
+        <v>11600</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>58500</v>
+        <v>46800</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>8397.799999999999</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3889.28</v>
+        <v>2592.85</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>10688.4</v>
+        <v>8907</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2700</v>
+        <v>2250</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2307550</v>
+        <v>1977900</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>21231.7</v>
+        <v>18198.6</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>92000</v>
+        <v>69000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>32849.22</v>
+        <v>16424.62</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>12960.9</v>
+        <v>6480.44</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>15015</v>
+        <v>12870</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>13639.5</v>
+        <v>11691</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2571.42</v>
+        <v>1928.56</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>67370.95</v>
+        <v>63407.95</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>22429.36</v>
+        <v>21109.98</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3382.37</v>
+        <v>3183.41</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>212500</v>
+        <v>200000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>32725</v>
+        <v>30800</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1187.01</v>
+        <v>1117.18</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>105655</v>
+        <v>99440</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>4653.75</v>
+        <v>4380</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>263088</v>
+        <v>241164</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>30520.01</v>
+        <v>27976.68</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>28000.01</v>
+        <v>25666.68</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -10016,7 +10016,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>30520.01</v>
+        <v>27976.68</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>952.01</v>
+        <v>872.6799999999999</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>24804</v>
+        <v>22737</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>5599.99</v>
+        <v>5133.32</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>43999.99</v>
+        <v>40333.32</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>107200.01</v>
+        <v>98266.67999999999</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>34000.01</v>
+        <v>31166.68</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>124950</v>
+        <v>117600</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>179010</v>
+        <v>168480</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>6103</v>
+        <v>5744</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>4972.5</v>
+        <v>4680</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>7650</v>
+        <v>7200</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3230</v>
+        <v>3040</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3740</v>
+        <v>3520</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>15300</v>
+        <v>14400</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>16294.5</v>
+        <v>15336</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1381.25</v>
+        <v>1300</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>3038.75</v>
+        <v>2860</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3867.5</v>
+        <v>3640</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1491.75</v>
+        <v>1404</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>5950</v>
+        <v>5600</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>3213</v>
+        <v>3024</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>106250</v>
+        <v>100000</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>21165</v>
+        <v>19920</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>5525</v>
+        <v>5200</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3187.5</v>
+        <v>3000</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>8880</v>
+        <v>8140</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>23920.01</v>
+        <v>21926.68</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>4999.99</v>
+        <v>4583.32</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>9720</v>
+        <v>8910</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2100</v>
+        <v>1925</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>14700</v>
+        <v>13475</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2688</v>
+        <v>2464</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1650</v>
+        <v>1512.5</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>10500</v>
+        <v>9625</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1680</v>
+        <v>1540</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>68880</v>
+        <v>63140</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>157200</v>
+        <v>144100</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1248</v>
+        <v>1144</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>17872.01</v>
+        <v>16382.68</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>41887.99</v>
+        <v>38397.32</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -12570,7 +12570,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>9499.99</v>
+        <v>8708.32</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>12540</v>
+        <v>11495</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -12688,7 +12688,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>4824</v>
+        <v>4422</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>6600</v>
+        <v>6050</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1560</v>
+        <v>1430</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>18559.99</v>
+        <v>17013.32</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>2800.01</v>
+        <v>2566.68</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>63000</v>
+        <v>57750</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>139999.99</v>
+        <v>128333.32</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>78000</v>
+        <v>71500</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>24400.01</v>
+        <v>22366.68</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>10260</v>
+        <v>9405</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>35100</v>
+        <v>32175</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>24480</v>
+        <v>22440</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>3315</v>
+        <v>3038.75</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>65100</v>
+        <v>59675</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>85600.00999999999</v>
+        <v>78466.67999999999</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>13260</v>
+        <v>12155</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>17599.99</v>
+        <v>16133.32</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>11760</v>
+        <v>10780</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>571.99</v>
+        <v>524.3200000000001</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>3115.99</v>
+        <v>2856.32</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>45720</v>
+        <v>41910</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>10200</v>
+        <v>9350</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -14078,7 +14078,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>72000</v>
+        <v>66000</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -14135,7 +14135,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>27600</v>
+        <v>25300</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>158374.11</v>
+        <v>135749.23</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>29767.5</v>
+        <v>25515</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>20475</v>
+        <v>17550</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>38892</v>
+        <v>33336</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>15669.5</v>
+        <v>13431</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>49045.92</v>
+        <v>46160.86</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -14534,7 +14534,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>200558.76</v>
+        <v>188761.18</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>120534.66</v>
+        <v>113444.38</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>180116.43</v>
+        <v>169521.34</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>87875.03999999999</v>
+        <v>82705.92</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>229743.78</v>
+        <v>216229.44</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14819,7 +14819,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>49852.5</v>
+        <v>46920</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14876,7 +14876,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2550</v>
+        <v>2400</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>97879.59</v>
+        <v>92121.97</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14990,7 +14990,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>44529.36</v>
+        <v>41909.98</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>24225</v>
+        <v>22800</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -15104,7 +15104,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>58718</v>
+        <v>55264</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15161,7 +15161,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>602236.05</v>
+        <v>566810.4</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>408000</v>
+        <v>384000</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>507284.25</v>
+        <v>477444</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>36645.93</v>
+        <v>34490.29</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -15389,7 +15389,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>92820</v>
+        <v>87360</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>33468.75</v>
+        <v>31500</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -15503,7 +15503,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>93712.5</v>
+        <v>88200</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -15560,7 +15560,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>183468.66</v>
+        <v>172676.38</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -15617,7 +15617,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>30929.58</v>
+        <v>29110.19</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -15674,7 +15674,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>73702.14</v>
+        <v>69366.72</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -15731,7 +15731,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>213290.79</v>
+        <v>200744.27</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>31683.75</v>
+        <v>29820</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>26922.9</v>
+        <v>25339.2</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -15902,7 +15902,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>18275</v>
+        <v>17200</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>123250</v>
+        <v>116000</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -16016,7 +16016,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>30827.12</v>
+        <v>29013.76</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -16073,7 +16073,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>70720</v>
+        <v>66560</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -16130,7 +16130,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>63537.5</v>
+        <v>59800</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>119510</v>
+        <v>112480</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -16244,7 +16244,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>114058.32</v>
+        <v>107349.01</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>3315</v>
+        <v>3120</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -16358,7 +16358,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>799999.99</v>
+        <v>733333.3199999999</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>93600</v>
+        <v>85800</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>132000</v>
+        <v>121000</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>37999.99</v>
+        <v>34833.32</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>58800</v>
+        <v>53900</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>40639.99</v>
+        <v>37253.32</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -16700,7 +16700,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>37600.01</v>
+        <v>34466.68</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>76800</v>
+        <v>70400</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>176640</v>
+        <v>161920</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>52000.01</v>
+        <v>47666.68</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>69600</v>
+        <v>63800</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>112000.01</v>
+        <v>102666.68</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>76000.00999999999</v>
+        <v>69666.67999999999</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>48000</v>
+        <v>44000</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>337999.99</v>
+        <v>309833.32</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -17223,7 +17223,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>6760.01</v>
+        <v>6196.68</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>48000</v>
+        <v>44000</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -17341,7 +17341,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>18720</v>
+        <v>17160</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -17400,7 +17400,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>94744.00999999999</v>
+        <v>86848.67999999999</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -17459,7 +17459,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>7150.01</v>
+        <v>6554.18</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -17518,7 +17518,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>160000.01</v>
+        <v>146666.68</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>945888</v>
+        <v>867064</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>96000</v>
+        <v>88000</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>63040.01</v>
+        <v>57786.68</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -17748,7 +17748,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>40080</v>
+        <v>36740</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -17805,7 +17805,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>150400.01</v>
+        <v>137866.68</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -17862,7 +17862,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>36400.01</v>
+        <v>33366.68</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -17919,7 +17919,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1918.8</v>
+        <v>1705.6</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>

--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>4061.59</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02</v>
+        <v>4061.59</v>
       </c>
       <c r="M2" t="n">
         <v>1899.979999999996</v>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.03</v>
+        <v>1544.26</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.03</v>
+        <v>1664.74</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4593</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.01</v>
+        <v>6836.42</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.02</v>
+        <v>3547.16</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-0.01</v>
+        <v>7271.42</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.01</v>
+        <v>8128.58</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-0.03</v>
+        <v>2414.26</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.03</v>
+        <v>2785.74</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>9135</v>
+        <v>12180</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-0.03</v>
+        <v>614.26</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.02</v>
+        <v>4041.16</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.01</v>
+        <v>2885.58</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16531.8</v>
+        <v>22042.4</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3510</v>
+        <v>4680</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7776</v>
+        <v>10368</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>76608</v>
+        <v>102144</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-0.02</v>
+        <v>4021.41</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8640</v>
+        <v>11520</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51800</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4012.5</v>
+        <v>5350</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.02</v>
+        <v>1757.16</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>29190</v>
+        <v>38920</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>-0.01</v>
+        <v>7681.42</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1912.5</v>
+        <v>2550</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3516.98</v>
+        <v>4689.32</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>879.28</v>
+        <v>1172.36</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.03</v>
+        <v>1485.74</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>-0.03</v>
+        <v>11464.26</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14586</v>
+        <v>19448</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>12125.04</v>
+        <v>16166.72</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5121.67</v>
+        <v>6828.88</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2199</v>
+        <v>2932</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2850</v>
+        <v>3800</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5040</v>
+        <v>6720</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3825</v>
+        <v>5100</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>9450</v>
+        <v>12600</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.03</v>
+        <v>2951.74</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5088.9</v>
+        <v>6785.2</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.03</v>
+        <v>5625.74</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.01</v>
+        <v>8928.58</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-0.02</v>
+        <v>5242.84</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>-0.02</v>
+        <v>30590.84</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2782939.5</v>
+        <v>3710586</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2714070</v>
+        <v>3618760</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-0.01</v>
+        <v>6114.42</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>-0.01</v>
+        <v>2871.42</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.02</v>
+        <v>617.16</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-0.03</v>
+        <v>1414.26</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.02</v>
+        <v>8257.16</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-0.02</v>
+        <v>26133.84</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.01</v>
+        <v>1306.58</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>-0.03</v>
+        <v>10394.26</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>117600</v>
+        <v>147000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>7419.84</v>
+        <v>14839.7</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>9008</v>
+        <v>11260</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>3557.16</v>
+        <v>7114.3</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>6926.42</v>
+        <v>13852.85</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>13268.8</v>
+        <v>16586</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>11600</v>
+        <v>14500</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>46800</v>
+        <v>58500</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2592.85</v>
+        <v>3889.28</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>8907</v>
+        <v>10688.4</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>26077.4</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1977900</v>
+        <v>2307550</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>18198.6</v>
+        <v>21231.7</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>69000</v>
+        <v>92000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>16424.62</v>
+        <v>32849.22</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>6480.44</v>
+        <v>12960.9</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>12870</v>
+        <v>15015</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>11691</v>
+        <v>13639.5</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1928.56</v>
+        <v>2571.42</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>63407.95</v>
+        <v>67370.95</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>21109.98</v>
+        <v>22429.36</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3183.41</v>
+        <v>3382.37</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>200000</v>
+        <v>212500</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>30800</v>
+        <v>32725</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1117.18</v>
+        <v>1187.01</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>99440</v>
+        <v>105655</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>4380</v>
+        <v>4653.75</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>241164</v>
+        <v>263088</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>27976.68</v>
+        <v>30520.01</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>25666.68</v>
+        <v>28000.01</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -10016,7 +10016,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>27976.68</v>
+        <v>30520.01</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>872.6799999999999</v>
+        <v>952.01</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>22737</v>
+        <v>24804</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>5133.32</v>
+        <v>5599.99</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>40333.32</v>
+        <v>43999.99</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>98266.67999999999</v>
+        <v>107200.01</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>31166.68</v>
+        <v>34000.01</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>117600</v>
+        <v>124950</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>168480</v>
+        <v>179010</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>5744</v>
+        <v>6103</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>4680</v>
+        <v>4972.5</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>7200</v>
+        <v>7650</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3040</v>
+        <v>3230</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3520</v>
+        <v>3740</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>15336</v>
+        <v>16294.5</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1300</v>
+        <v>1381.25</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>2860</v>
+        <v>3038.75</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3640</v>
+        <v>3867.5</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1404</v>
+        <v>1491.75</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>5600</v>
+        <v>5950</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>3024</v>
+        <v>3213</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>100000</v>
+        <v>106250</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>19920</v>
+        <v>21165</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>5200</v>
+        <v>5525</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3000</v>
+        <v>3187.5</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>8140</v>
+        <v>8880</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>21926.68</v>
+        <v>23920.01</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>4583.32</v>
+        <v>4999.99</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>8910</v>
+        <v>9720</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1925</v>
+        <v>2100</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>13475</v>
+        <v>14700</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2464</v>
+        <v>2688</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1512.5</v>
+        <v>1650</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>9625</v>
+        <v>10500</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1540</v>
+        <v>1680</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>63140</v>
+        <v>68880</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>144100</v>
+        <v>157200</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1144</v>
+        <v>1248</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>16382.68</v>
+        <v>17872.01</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>38397.32</v>
+        <v>41887.99</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -12570,7 +12570,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>8708.32</v>
+        <v>9499.99</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>11495</v>
+        <v>12540</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -12688,7 +12688,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>4422</v>
+        <v>4824</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>6050</v>
+        <v>6600</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1430</v>
+        <v>1560</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>17013.32</v>
+        <v>18559.99</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>2566.68</v>
+        <v>2800.01</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>57750</v>
+        <v>63000</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>128333.32</v>
+        <v>139999.99</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>71500</v>
+        <v>78000</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>22366.68</v>
+        <v>24400.01</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>9405</v>
+        <v>10260</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>32175</v>
+        <v>35100</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>22440</v>
+        <v>24480</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>3038.75</v>
+        <v>3315</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>59675</v>
+        <v>65100</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>78466.67999999999</v>
+        <v>85600.00999999999</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>12155</v>
+        <v>13260</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>16133.32</v>
+        <v>17599.99</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>10780</v>
+        <v>11760</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>524.3200000000001</v>
+        <v>571.99</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2856.32</v>
+        <v>3115.99</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>41910</v>
+        <v>45720</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>9350</v>
+        <v>10200</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -14078,7 +14078,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>66000</v>
+        <v>72000</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -14135,7 +14135,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>25300</v>
+        <v>27600</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>135749.23</v>
+        <v>158374.11</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>25515</v>
+        <v>29767.5</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>17550</v>
+        <v>20475</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>33336</v>
+        <v>38892</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>13431</v>
+        <v>15669.5</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>46160.86</v>
+        <v>49045.92</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -14534,7 +14534,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>188761.18</v>
+        <v>200558.76</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>113444.38</v>
+        <v>120534.66</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>169521.34</v>
+        <v>180116.43</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>82705.92</v>
+        <v>87875.03999999999</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>216229.44</v>
+        <v>229743.78</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14819,7 +14819,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>46920</v>
+        <v>49852.5</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14876,7 +14876,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>92121.97</v>
+        <v>97879.59</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14990,7 +14990,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>41909.98</v>
+        <v>44529.36</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>22800</v>
+        <v>24225</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -15104,7 +15104,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>55264</v>
+        <v>58718</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15161,7 +15161,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>566810.4</v>
+        <v>602236.05</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>384000</v>
+        <v>408000</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>477444</v>
+        <v>507284.25</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>34490.29</v>
+        <v>36645.93</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -15389,7 +15389,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>87360</v>
+        <v>92820</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>31500</v>
+        <v>33468.75</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -15503,7 +15503,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>88200</v>
+        <v>93712.5</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -15560,7 +15560,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>172676.38</v>
+        <v>183468.66</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -15617,7 +15617,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>29110.19</v>
+        <v>30929.58</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -15674,7 +15674,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>69366.72</v>
+        <v>73702.14</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -15731,7 +15731,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>200744.27</v>
+        <v>213290.79</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>29820</v>
+        <v>31683.75</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>25339.2</v>
+        <v>26922.9</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -15902,7 +15902,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>17200</v>
+        <v>18275</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>116000</v>
+        <v>123250</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -16016,7 +16016,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>29013.76</v>
+        <v>30827.12</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -16073,7 +16073,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>66560</v>
+        <v>70720</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -16130,7 +16130,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>59800</v>
+        <v>63537.5</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>112480</v>
+        <v>119510</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -16244,7 +16244,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>107349.01</v>
+        <v>114058.32</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>3120</v>
+        <v>3315</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -16358,7 +16358,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>733333.3199999999</v>
+        <v>799999.99</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>85800</v>
+        <v>93600</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>121000</v>
+        <v>132000</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>34833.32</v>
+        <v>37999.99</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>53900</v>
+        <v>58800</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>37253.32</v>
+        <v>40639.99</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -16700,7 +16700,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>34466.68</v>
+        <v>37600.01</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>70400</v>
+        <v>76800</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -16814,7 +16814,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>161920</v>
+        <v>176640</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>47666.68</v>
+        <v>52000.01</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>63800</v>
+        <v>69600</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>102666.68</v>
+        <v>112000.01</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>69666.67999999999</v>
+        <v>76000.00999999999</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>44000</v>
+        <v>48000</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>309833.32</v>
+        <v>337999.99</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -17223,7 +17223,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>6196.68</v>
+        <v>6760.01</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>44000</v>
+        <v>48000</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -17341,7 +17341,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>17160</v>
+        <v>18720</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -17400,7 +17400,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>86848.67999999999</v>
+        <v>94744.00999999999</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -17459,7 +17459,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>6554.18</v>
+        <v>7150.01</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -17518,7 +17518,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>146666.68</v>
+        <v>160000.01</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>867064</v>
+        <v>945888</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>88000</v>
+        <v>96000</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>57786.68</v>
+        <v>63040.01</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -17748,7 +17748,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>36740</v>
+        <v>40080</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -17805,7 +17805,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>137866.68</v>
+        <v>150400.01</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -17862,7 +17862,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>33366.68</v>
+        <v>36400.01</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -17919,7 +17919,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1705.6</v>
+        <v>0</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>

--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:P301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>2024-2025</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -568,6 +573,9 @@
       <c r="O2" t="n">
         <v>1199.98</v>
       </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -627,6 +635,9 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -686,6 +697,9 @@
       <c r="O4" t="n">
         <v>0.03</v>
       </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -745,6 +759,9 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -804,6 +821,9 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -863,6 +883,9 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -922,6 +945,9 @@
       <c r="O8" t="n">
         <v>0.01</v>
       </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -979,6 +1005,9 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1036,6 +1065,9 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1093,6 +1125,9 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1150,6 +1185,9 @@
       <c r="O12" t="n">
         <v>0.01</v>
       </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1207,6 +1245,9 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1266,6 +1307,9 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1325,6 +1369,9 @@
       <c r="O15" t="n">
         <v>0.03</v>
       </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1384,6 +1431,9 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1441,6 +1491,9 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1500,6 +1553,9 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1559,6 +1615,9 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1618,6 +1677,9 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1677,6 +1739,9 @@
       <c r="O21" t="n">
         <v>0.03</v>
       </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1734,6 +1799,9 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1791,6 +1859,9 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1848,6 +1919,9 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1907,6 +1981,9 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1966,6 +2043,9 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2025,6 +2105,9 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2084,6 +2167,9 @@
       <c r="O28" t="n">
         <v>0.02</v>
       </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2143,6 +2229,9 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2202,6 +2291,9 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2261,6 +2353,9 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2320,6 +2415,9 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2379,6 +2477,9 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2438,6 +2539,9 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2495,6 +2599,9 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2554,6 +2661,9 @@
       <c r="O36" t="n">
         <v>0.01</v>
       </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2603,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2611,6 +2721,9 @@
       <c r="O37" t="n">
         <v>0.02</v>
       </c>
+      <c r="P37" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2670,6 +2783,9 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2729,6 +2845,9 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2780,7 +2899,7 @@
         <v>4500</v>
       </c>
       <c r="M40" t="n">
-        <v>2587.5</v>
+        <v>4537.5</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2788,6 +2907,9 @@
       <c r="O40" t="n">
         <v>2587.5</v>
       </c>
+      <c r="P40" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2847,6 +2969,9 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2904,6 +3029,9 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2963,6 +3091,9 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3022,6 +3153,9 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3081,6 +3215,9 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3138,6 +3275,9 @@
       <c r="O46" t="n">
         <v>0.03</v>
       </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3195,6 +3335,9 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3254,6 +3397,9 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3313,6 +3459,9 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3372,6 +3521,9 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3431,6 +3583,9 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3490,6 +3645,9 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3549,6 +3707,9 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3608,6 +3769,9 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3667,6 +3831,9 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3726,6 +3893,9 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3785,6 +3955,9 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3844,6 +4017,9 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3903,6 +4079,9 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3962,6 +4141,9 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4019,6 +4201,9 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4076,6 +4261,9 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4135,6 +4323,9 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4194,6 +4385,9 @@
       <c r="O64" t="n">
         <v>0</v>
       </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4253,6 +4447,9 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4312,6 +4509,9 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4369,6 +4569,9 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4428,6 +4631,9 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4487,6 +4693,9 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4546,6 +4755,9 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4605,6 +4817,9 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4662,6 +4877,9 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4721,6 +4939,9 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4780,6 +5001,9 @@
       <c r="O74" t="n">
         <v>0</v>
       </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4839,6 +5063,9 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4898,6 +5125,9 @@
       <c r="O76" t="n">
         <v>0</v>
       </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4957,6 +5187,9 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5016,6 +5249,9 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5075,6 +5311,9 @@
       <c r="O79" t="n">
         <v>0</v>
       </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5132,6 +5371,9 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5191,6 +5433,9 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5250,6 +5495,9 @@
       <c r="O82" t="n">
         <v>0</v>
       </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5309,6 +5557,9 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5368,6 +5619,9 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5425,6 +5679,9 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5484,6 +5741,9 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5543,6 +5803,9 @@
       <c r="O87" t="n">
         <v>0</v>
       </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5600,6 +5863,9 @@
       <c r="O88" t="n">
         <v>0</v>
       </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5657,6 +5923,9 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5716,6 +5985,9 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5775,6 +6047,9 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5834,6 +6109,9 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5893,6 +6171,9 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5952,6 +6233,9 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6011,6 +6295,9 @@
       <c r="O95" t="n">
         <v>0</v>
       </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6070,6 +6357,9 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6127,6 +6417,9 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6186,6 +6479,9 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6245,6 +6541,9 @@
       <c r="O99" t="n">
         <v>0</v>
       </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6304,6 +6603,9 @@
       <c r="O100" t="n">
         <v>0</v>
       </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6361,6 +6663,9 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6418,6 +6723,9 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6467,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6475,6 +6783,9 @@
       <c r="O103" t="n">
         <v>0.01</v>
       </c>
+      <c r="P103" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6534,6 +6845,9 @@
       <c r="O104" t="n">
         <v>0</v>
       </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6591,6 +6905,9 @@
       <c r="O105" t="n">
         <v>0</v>
       </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6642,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6650,6 +6967,9 @@
       <c r="O106" t="n">
         <v>0.01</v>
       </c>
+      <c r="P106" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6709,6 +7029,9 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6768,6 +7091,9 @@
       <c r="O108" t="n">
         <v>0</v>
       </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6827,6 +7153,9 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6884,6 +7213,9 @@
       <c r="O110" t="n">
         <v>0</v>
       </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6943,6 +7275,9 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7002,6 +7337,9 @@
       <c r="O112" t="n">
         <v>0</v>
       </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7061,6 +7399,9 @@
       <c r="O113" t="n">
         <v>0</v>
       </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7120,6 +7461,9 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7179,6 +7523,9 @@
       <c r="O115" t="n">
         <v>0</v>
       </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7238,6 +7585,9 @@
       <c r="O116" t="n">
         <v>0</v>
       </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7297,6 +7647,9 @@
       <c r="O117" t="n">
         <v>0</v>
       </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7356,6 +7709,9 @@
       <c r="O118" t="n">
         <v>0</v>
       </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7415,6 +7771,9 @@
       <c r="O119" t="n">
         <v>0</v>
       </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7474,6 +7833,9 @@
       <c r="O120" t="n">
         <v>0</v>
       </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7533,6 +7895,9 @@
       <c r="O121" t="n">
         <v>0</v>
       </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7592,6 +7957,9 @@
       <c r="O122" t="n">
         <v>0</v>
       </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7643,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7651,6 +8019,9 @@
       <c r="O123" t="n">
         <v>0.01</v>
       </c>
+      <c r="P123" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7702,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.02000000001455192</v>
+        <v>0.04000000001455192</v>
       </c>
       <c r="N124" t="n">
         <v>1.455191522836685e-11</v>
@@ -7710,6 +8081,9 @@
       <c r="O124" t="n">
         <v>0.02</v>
       </c>
+      <c r="P124" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7769,6 +8143,9 @@
       <c r="O125" t="n">
         <v>0</v>
       </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7826,6 +8203,9 @@
       <c r="O126" t="n">
         <v>0</v>
       </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7885,6 +8265,9 @@
       <c r="O127" t="n">
         <v>0</v>
       </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7944,6 +8327,9 @@
       <c r="O128" t="n">
         <v>0</v>
       </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8003,6 +8389,9 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8062,6 +8451,9 @@
       <c r="O130" t="n">
         <v>0</v>
       </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8121,6 +8513,9 @@
       <c r="O131" t="n">
         <v>0</v>
       </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8180,6 +8575,9 @@
       <c r="O132" t="n">
         <v>0</v>
       </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8239,6 +8637,9 @@
       <c r="O133" t="n">
         <v>0</v>
       </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8298,6 +8699,9 @@
       <c r="O134" t="n">
         <v>0</v>
       </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8357,6 +8761,9 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8416,6 +8823,9 @@
       <c r="O136" t="n">
         <v>0</v>
       </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8473,6 +8883,9 @@
       <c r="O137" t="n">
         <v>0</v>
       </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8532,6 +8945,9 @@
       <c r="O138" t="n">
         <v>0</v>
       </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8591,6 +9007,9 @@
       <c r="O139" t="n">
         <v>0</v>
       </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8650,6 +9069,9 @@
       <c r="O140" t="n">
         <v>0</v>
       </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8709,6 +9131,9 @@
       <c r="O141" t="n">
         <v>0</v>
       </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8768,6 +9193,9 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8827,6 +9255,9 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8886,6 +9317,9 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8943,6 +9377,9 @@
       <c r="O145" t="n">
         <v>0</v>
       </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9002,6 +9439,9 @@
       <c r="O146" t="n">
         <v>0</v>
       </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9061,6 +9501,9 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9120,6 +9563,9 @@
       <c r="O148" t="n">
         <v>0</v>
       </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9177,6 +9623,9 @@
       <c r="O149" t="n">
         <v>0</v>
       </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9236,6 +9685,9 @@
       <c r="O150" t="n">
         <v>0</v>
       </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9295,6 +9747,9 @@
       <c r="O151" t="n">
         <v>0</v>
       </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9352,6 +9807,9 @@
       <c r="O152" t="n">
         <v>0</v>
       </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9409,6 +9867,9 @@
       <c r="O153" t="n">
         <v>0</v>
       </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9466,6 +9927,9 @@
       <c r="O154" t="n">
         <v>0</v>
       </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9523,6 +9987,9 @@
       <c r="O155" t="n">
         <v>0</v>
       </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9580,6 +10047,9 @@
       <c r="O156" t="n">
         <v>0</v>
       </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9637,6 +10107,9 @@
       <c r="O157" t="n">
         <v>0</v>
       </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9694,6 +10167,9 @@
       <c r="O158" t="n">
         <v>0</v>
       </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9751,6 +10227,9 @@
       <c r="O159" t="n">
         <v>0</v>
       </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9808,6 +10287,9 @@
       <c r="O160" t="n">
         <v>0</v>
       </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9865,6 +10347,9 @@
       <c r="O161" t="n">
         <v>0</v>
       </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9922,6 +10407,9 @@
       <c r="O162" t="n">
         <v>0</v>
       </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9979,6 +10467,9 @@
       <c r="O163" t="n">
         <v>0</v>
       </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10036,6 +10527,9 @@
       <c r="O164" t="n">
         <v>0</v>
       </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10093,6 +10587,9 @@
       <c r="O165" t="n">
         <v>0</v>
       </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10150,6 +10647,9 @@
       <c r="O166" t="n">
         <v>0</v>
       </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10207,6 +10707,9 @@
       <c r="O167" t="n">
         <v>0</v>
       </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10264,6 +10767,9 @@
       <c r="O168" t="n">
         <v>0</v>
       </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10322,6 +10828,9 @@
       <c r="O169" t="n">
         <v>0</v>
       </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10381,6 +10890,9 @@
       <c r="O170" t="n">
         <v>0</v>
       </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10438,6 +10950,9 @@
       <c r="O171" t="n">
         <v>0</v>
       </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10497,6 +11012,9 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10556,6 +11074,9 @@
       <c r="O173" t="n">
         <v>0</v>
       </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10615,6 +11136,9 @@
       <c r="O174" t="n">
         <v>0</v>
       </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10674,6 +11198,9 @@
       <c r="O175" t="n">
         <v>0</v>
       </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10731,6 +11258,9 @@
       <c r="O176" t="n">
         <v>0</v>
       </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10788,6 +11318,9 @@
       <c r="O177" t="n">
         <v>0</v>
       </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10845,6 +11378,9 @@
       <c r="O178" t="n">
         <v>0</v>
       </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10902,6 +11438,9 @@
       <c r="O179" t="n">
         <v>0</v>
       </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10961,6 +11500,9 @@
       <c r="O180" t="n">
         <v>0</v>
       </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11018,6 +11560,9 @@
       <c r="O181" t="n">
         <v>0</v>
       </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11075,6 +11620,9 @@
       <c r="O182" t="n">
         <v>0</v>
       </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11132,6 +11680,9 @@
       <c r="O183" t="n">
         <v>0</v>
       </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11190,6 +11741,9 @@
       <c r="O184" t="n">
         <v>0</v>
       </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11247,6 +11801,9 @@
       <c r="O185" t="n">
         <v>0</v>
       </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11304,6 +11861,9 @@
       <c r="O186" t="n">
         <v>0</v>
       </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11361,6 +11921,9 @@
       <c r="O187" t="n">
         <v>0</v>
       </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11418,6 +11981,9 @@
       <c r="O188" t="n">
         <v>0</v>
       </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11475,6 +12041,9 @@
       <c r="O189" t="n">
         <v>0</v>
       </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11534,6 +12103,9 @@
       <c r="O190" t="n">
         <v>0</v>
       </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11593,6 +12165,9 @@
       <c r="O191" t="n">
         <v>0</v>
       </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11650,6 +12225,9 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11709,6 +12287,9 @@
       <c r="O193" t="n">
         <v>0</v>
       </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11768,6 +12349,9 @@
       <c r="O194" t="n">
         <v>0</v>
       </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11827,6 +12411,9 @@
       <c r="O195" t="n">
         <v>0</v>
       </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11884,6 +12471,9 @@
       <c r="O196" t="n">
         <v>0</v>
       </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11941,6 +12531,9 @@
       <c r="O197" t="n">
         <v>0</v>
       </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12000,6 +12593,9 @@
       <c r="O198" t="n">
         <v>0</v>
       </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12059,6 +12655,9 @@
       <c r="O199" t="n">
         <v>0</v>
       </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12118,6 +12717,9 @@
       <c r="O200" t="n">
         <v>0</v>
       </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12177,6 +12779,9 @@
       <c r="O201" t="n">
         <v>0</v>
       </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12236,6 +12841,9 @@
       <c r="O202" t="n">
         <v>0</v>
       </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12295,6 +12903,9 @@
       <c r="O203" t="n">
         <v>0</v>
       </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12354,6 +12965,9 @@
       <c r="O204" t="n">
         <v>0</v>
       </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12413,6 +13027,9 @@
       <c r="O205" t="n">
         <v>0</v>
       </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12472,6 +13089,9 @@
       <c r="O206" t="n">
         <v>0</v>
       </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12531,6 +13151,9 @@
       <c r="O207" t="n">
         <v>0</v>
       </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12590,6 +13213,9 @@
       <c r="O208" t="n">
         <v>0</v>
       </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12649,6 +13275,9 @@
       <c r="O209" t="n">
         <v>0</v>
       </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12708,6 +13337,9 @@
       <c r="O210" t="n">
         <v>0</v>
       </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12767,6 +13399,9 @@
       <c r="O211" t="n">
         <v>0</v>
       </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12826,6 +13461,9 @@
       <c r="O212" t="n">
         <v>0</v>
       </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12885,6 +13523,9 @@
       <c r="O213" t="n">
         <v>0</v>
       </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12944,6 +13585,9 @@
       <c r="O214" t="n">
         <v>0</v>
       </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13003,6 +13647,9 @@
       <c r="O215" t="n">
         <v>0</v>
       </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13062,6 +13709,9 @@
       <c r="O216" t="n">
         <v>0</v>
       </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13121,6 +13771,9 @@
       <c r="O217" t="n">
         <v>0</v>
       </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13180,6 +13833,9 @@
       <c r="O218" t="n">
         <v>0</v>
       </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13239,6 +13895,9 @@
       <c r="O219" t="n">
         <v>0</v>
       </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13298,6 +13957,9 @@
       <c r="O220" t="n">
         <v>0</v>
       </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13355,6 +14017,9 @@
       <c r="O221" t="n">
         <v>0</v>
       </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13412,6 +14077,9 @@
       <c r="O222" t="n">
         <v>0</v>
       </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13469,6 +14137,9 @@
       <c r="O223" t="n">
         <v>0</v>
       </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13526,6 +14197,9 @@
       <c r="O224" t="n">
         <v>0</v>
       </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13583,6 +14257,9 @@
       <c r="O225" t="n">
         <v>0</v>
       </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13640,6 +14317,9 @@
       <c r="O226" t="n">
         <v>0</v>
       </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13699,6 +14379,9 @@
       <c r="O227" t="n">
         <v>0</v>
       </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13756,6 +14439,9 @@
       <c r="O228" t="n">
         <v>0</v>
       </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13813,6 +14499,9 @@
       <c r="O229" t="n">
         <v>0</v>
       </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13870,6 +14559,9 @@
       <c r="O230" t="n">
         <v>0</v>
       </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13927,6 +14619,9 @@
       <c r="O231" t="n">
         <v>0</v>
       </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13984,6 +14679,9 @@
       <c r="O232" t="n">
         <v>0</v>
       </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14041,6 +14739,9 @@
       <c r="O233" t="n">
         <v>0</v>
       </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14098,6 +14799,9 @@
       <c r="O234" t="n">
         <v>0</v>
       </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14155,6 +14859,9 @@
       <c r="O235" t="n">
         <v>0</v>
       </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14212,6 +14919,9 @@
       <c r="O236" t="n">
         <v>0</v>
       </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14269,6 +14979,9 @@
       <c r="O237" t="n">
         <v>0</v>
       </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14326,6 +15039,9 @@
       <c r="O238" t="n">
         <v>0</v>
       </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14383,6 +15099,9 @@
       <c r="O239" t="n">
         <v>0</v>
       </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14440,6 +15159,9 @@
       <c r="O240" t="n">
         <v>0</v>
       </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14497,6 +15219,9 @@
       <c r="O241" t="n">
         <v>0</v>
       </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14554,6 +15279,9 @@
       <c r="O242" t="n">
         <v>0</v>
       </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14611,6 +15339,9 @@
       <c r="O243" t="n">
         <v>0</v>
       </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14668,6 +15399,9 @@
       <c r="O244" t="n">
         <v>0</v>
       </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14725,6 +15459,9 @@
       <c r="O245" t="n">
         <v>0</v>
       </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14782,6 +15519,9 @@
       <c r="O246" t="n">
         <v>0</v>
       </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14839,6 +15579,9 @@
       <c r="O247" t="n">
         <v>0</v>
       </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14896,6 +15639,9 @@
       <c r="O248" t="n">
         <v>0</v>
       </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14953,6 +15699,9 @@
       <c r="O249" t="n">
         <v>0</v>
       </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15010,6 +15759,9 @@
       <c r="O250" t="n">
         <v>0</v>
       </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15067,6 +15819,9 @@
       <c r="O251" t="n">
         <v>0</v>
       </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15124,6 +15879,9 @@
       <c r="O252" t="n">
         <v>0</v>
       </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15181,6 +15939,9 @@
       <c r="O253" t="n">
         <v>0</v>
       </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15238,6 +15999,9 @@
       <c r="O254" t="n">
         <v>0</v>
       </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15295,6 +16059,9 @@
       <c r="O255" t="n">
         <v>0</v>
       </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15352,6 +16119,9 @@
       <c r="O256" t="n">
         <v>0</v>
       </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15409,6 +16179,9 @@
       <c r="O257" t="n">
         <v>0</v>
       </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15466,6 +16239,9 @@
       <c r="O258" t="n">
         <v>0</v>
       </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15523,6 +16299,9 @@
       <c r="O259" t="n">
         <v>0</v>
       </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15580,6 +16359,9 @@
       <c r="O260" t="n">
         <v>0</v>
       </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15637,6 +16419,9 @@
       <c r="O261" t="n">
         <v>0</v>
       </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15694,6 +16479,9 @@
       <c r="O262" t="n">
         <v>0</v>
       </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15751,6 +16539,9 @@
       <c r="O263" t="n">
         <v>0</v>
       </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15808,6 +16599,9 @@
       <c r="O264" t="n">
         <v>0</v>
       </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15865,6 +16659,9 @@
       <c r="O265" t="n">
         <v>0</v>
       </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15922,6 +16719,9 @@
       <c r="O266" t="n">
         <v>0</v>
       </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15979,6 +16779,9 @@
       <c r="O267" t="n">
         <v>0</v>
       </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16036,6 +16839,9 @@
       <c r="O268" t="n">
         <v>0</v>
       </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16093,6 +16899,9 @@
       <c r="O269" t="n">
         <v>0</v>
       </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16150,6 +16959,9 @@
       <c r="O270" t="n">
         <v>0</v>
       </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16207,6 +17019,9 @@
       <c r="O271" t="n">
         <v>0</v>
       </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16264,6 +17079,9 @@
       <c r="O272" t="n">
         <v>0</v>
       </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16321,6 +17139,9 @@
       <c r="O273" t="n">
         <v>0</v>
       </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16378,6 +17199,9 @@
       <c r="O274" t="n">
         <v>0</v>
       </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16435,6 +17259,9 @@
       <c r="O275" t="n">
         <v>0</v>
       </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16492,6 +17319,9 @@
       <c r="O276" t="n">
         <v>0</v>
       </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16549,6 +17379,9 @@
       <c r="O277" t="n">
         <v>0</v>
       </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16606,6 +17439,9 @@
       <c r="O278" t="n">
         <v>0</v>
       </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16663,6 +17499,9 @@
       <c r="O279" t="n">
         <v>0</v>
       </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16720,6 +17559,9 @@
       <c r="O280" t="n">
         <v>0</v>
       </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16777,6 +17619,9 @@
       <c r="O281" t="n">
         <v>0</v>
       </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16834,6 +17679,9 @@
       <c r="O282" t="n">
         <v>0</v>
       </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16891,6 +17739,9 @@
       <c r="O283" t="n">
         <v>0</v>
       </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16950,6 +17801,9 @@
       <c r="O284" t="n">
         <v>0</v>
       </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17009,6 +17863,9 @@
       <c r="O285" t="n">
         <v>0</v>
       </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17068,6 +17925,9 @@
       <c r="O286" t="n">
         <v>0</v>
       </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17125,6 +17985,9 @@
       <c r="O287" t="n">
         <v>0</v>
       </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17184,6 +18047,9 @@
       <c r="O288" t="n">
         <v>0</v>
       </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17243,6 +18109,9 @@
       <c r="O289" t="n">
         <v>0</v>
       </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17302,6 +18171,9 @@
       <c r="O290" t="n">
         <v>0</v>
       </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17361,6 +18233,9 @@
       <c r="O291" t="n">
         <v>0</v>
       </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17420,6 +18295,9 @@
       <c r="O292" t="n">
         <v>0</v>
       </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17479,6 +18357,9 @@
       <c r="O293" t="n">
         <v>0</v>
       </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17538,6 +18419,9 @@
       <c r="O294" t="n">
         <v>0</v>
       </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17597,6 +18481,9 @@
       <c r="O295" t="n">
         <v>0</v>
       </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -17654,6 +18541,9 @@
       <c r="O296" t="n">
         <v>0</v>
       </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17711,6 +18601,9 @@
       <c r="O297" t="n">
         <v>0</v>
       </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17768,6 +18661,9 @@
       <c r="O298" t="n">
         <v>0</v>
       </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -17825,6 +18721,9 @@
       <c r="O299" t="n">
         <v>0</v>
       </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -17882,6 +18781,9 @@
       <c r="O300" t="n">
         <v>0</v>
       </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -17919,7 +18821,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
@@ -17937,6 +18839,9 @@
         <v>0</v>
       </c>
       <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
         <v>0</v>
       </c>
     </row>

--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3547.16</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>

--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4061.59</v>
+        <v>597.83</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3179</v>
+        <v>729.16</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1544.26</v>
+        <v>839.42</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1664.74</v>
+        <v>852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4593</v>
+        <v>827</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3510</v>
+        <v>729.26</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6836.42</v>
+        <v>799.26</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3547.16</v>
+        <v>767.42</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>7271.42</v>
+        <v>798.58</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8128.58</v>
+        <v>717.84</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1626</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2414.26</v>
+        <v>762.26</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2785.74</v>
+        <v>724.58</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1667.2</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>582.4400000000001</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1588.4</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12180</v>
+        <v>2053.2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>614.26</v>
+        <v>778.74</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4041.16</v>
+        <v>838.16</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2885.58</v>
+        <v>845.74</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>22042.4</v>
+        <v>2319.6</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4680</v>
+        <v>2098</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>10368</v>
+        <v>2310.8</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>102144</v>
+        <v>2083.6</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4021.41</v>
+        <v>603.01</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>96000</v>
+        <v>2194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>19200</v>
+        <v>2234.8</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>11520</v>
+        <v>2153.2</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>51800</v>
+        <v>774.42</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5350</v>
+        <v>2201.6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1757.16</v>
+        <v>844.84</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>38920</v>
+        <v>2181.2</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7681.42</v>
+        <v>728.84</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-0.02</v>
+        <v>639.41</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>28000</v>
+        <v>815.58</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6000</v>
+        <v>2319.6</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2550</v>
+        <v>2255.6</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2344</v>
+        <v>837.26</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1724.4</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4689.32</v>
+        <v>2147.6</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1172.36</v>
+        <v>2379.2</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1485.74</v>
+        <v>735.74</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>11464.26</v>
+        <v>850.84</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1709.6</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>666.26</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>19448</v>
+        <v>1730</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.01</v>
+        <v>675.5700000000001</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.01</v>
+        <v>527.4299999999999</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1617.2</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1784.4</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1694.4</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1492.8</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1684.4</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1641.6</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1854.8</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>16166.72</v>
+        <v>1685.2</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2624</v>
+        <v>801.42</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6828.88</v>
+        <v>2262</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1536.4</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>22000</v>
+        <v>2289.2</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>10000</v>
+        <v>2308.8</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>-16454.4</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2932</v>
+        <v>2217.6</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3800</v>
+        <v>2334</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6720</v>
+        <v>2397.6</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5100</v>
+        <v>2228.8</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>12600</v>
+        <v>2114.4</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2951.74</v>
+        <v>784.58</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6785.2</v>
+        <v>2335.2</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4800</v>
+        <v>2174.8</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2000</v>
+        <v>2318.8</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>5625.74</v>
+        <v>728.26</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>8928.58</v>
+        <v>734.26</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1755.6</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1663.6</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1879.2</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>567.26</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>14000</v>
+        <v>2365.6</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>5242.84</v>
+        <v>753</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>30590.84</v>
+        <v>724.84</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3710586</v>
+        <v>2219.6</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3618760</v>
+        <v>2030</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6114.42</v>
+        <v>818.74</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2871.42</v>
+        <v>716.58</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>617.16</v>
+        <v>801.16</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>-0.01</v>
+        <v>674.73</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1414.26</v>
+        <v>748.58</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>8257.16</v>
+        <v>723.26</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>-0.01</v>
+        <v>615.27</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>26133.84</v>
+        <v>837.84</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1306.58</v>
+        <v>817.58</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>10394.26</v>
+        <v>832.84</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1559.2</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2132.5</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2114.5</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1941.5</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>147000</v>
+        <v>2605</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>7000</v>
+        <v>2781.5</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>14839.7</v>
+        <v>1570.3</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>11260</v>
+        <v>2872.5</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>7114.3</v>
+        <v>1576</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>13852.85</v>
+        <v>1440</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>16586</v>
+        <v>2848.5</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>14500</v>
+        <v>2535</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>58500</v>
+        <v>2796.5</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>8750</v>
+        <v>2529</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>4088.4</v>
+        <v>1137.8</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>11270.8</v>
+        <v>1123</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>8397.799999999999</v>
+        <v>1075.4</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>397.8</v>
+        <v>1071</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3889.28</v>
+        <v>2454</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>16280</v>
+        <v>1192.4</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>4796</v>
+        <v>1104.4</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1980</v>
+        <v>1074.6</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>26667</v>
+        <v>1190</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>10688.4</v>
+        <v>3252.6</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>11823.2</v>
+        <v>1068.4</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2700</v>
+        <v>3364.8</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>55801</v>
+        <v>1052.4</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>26077.4</v>
+        <v>1002.4</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2307550</v>
+        <v>4050.2</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>21231.7</v>
+        <v>3723.3</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>92000</v>
+        <v>3367.42</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>32849.22</v>
+        <v>2393.2</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>12960.9</v>
+        <v>2193.2</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>15015</v>
+        <v>3707.2</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>13639.5</v>
+        <v>3665.9</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2571.42</v>
+        <v>2952</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>8500</v>
+        <v>4505</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>8500</v>
+        <v>4684.35</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>67370.95</v>
+        <v>4284</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>22429.36</v>
+        <v>5017.55</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3382.37</v>
+        <v>4254.25</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>212500</v>
+        <v>4627.4</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>32725</v>
+        <v>4760</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1187.01</v>
+        <v>5090.65</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -10207,7 +10207,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>105655</v>
+        <v>4463.35</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>4653.75</v>
+        <v>5009.05</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>263088</v>
+        <v>4509.6</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>30520.01</v>
+        <v>4219.2</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>28000.01</v>
+        <v>4149.6</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>30520.01</v>
+        <v>4401.6</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>952.01</v>
+        <v>4261.61</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -10627,7 +10627,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>6000</v>
+        <v>4123.2</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>24804</v>
+        <v>4180.01</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>5599.99</v>
+        <v>4710.41</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>43999.99</v>
+        <v>4538.4</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>107200.01</v>
+        <v>4359.19</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>34000.01</v>
+        <v>4156.8</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>124950</v>
+        <v>4672.45</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>179010</v>
+        <v>4495.65</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>6103</v>
+        <v>4531.35</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>4972.5</v>
+        <v>4337.55</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>7650</v>
+        <v>4607</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3230</v>
+        <v>4672.45</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3740</v>
+        <v>4463.35</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>15300</v>
+        <v>4603.6</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>16294.5</v>
+        <v>5044.75</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1381.25</v>
+        <v>4266.15</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>3038.75</v>
+        <v>4537.3</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3867.5</v>
+        <v>4649.5</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1491.75</v>
+        <v>4631.65</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>5950</v>
+        <v>4864.55</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>357</v>
+        <v>5037.1</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -11901,7 +11901,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>3213</v>
+        <v>4675</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>106250</v>
+        <v>4253.4</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>21165</v>
+        <v>5067.7</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>5525</v>
+        <v>4389.4</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3187.5</v>
+        <v>4866.25</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>8880</v>
+        <v>4149.6</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -12267,7 +12267,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>23920.01</v>
+        <v>4363.99</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>4999.99</v>
+        <v>4035.19</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>9720</v>
+        <v>4786.39</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>6000</v>
+        <v>4732.01</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2100</v>
+        <v>4440</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>14700</v>
+        <v>4197.6</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2688</v>
+        <v>4091.21</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1650</v>
+        <v>4793.59</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>10500</v>
+        <v>4648.01</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1680</v>
+        <v>4758.41</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>68880</v>
+        <v>4161.6</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>157200</v>
+        <v>4089.6</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1248</v>
+        <v>4375.2</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -13069,7 +13069,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>17872.01</v>
+        <v>4356.79</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -13131,7 +13131,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>41887.99</v>
+        <v>4153.61</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>9499.99</v>
+        <v>4381.61</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>12540</v>
+        <v>4409.59</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2400</v>
+        <v>4495.2</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -13379,7 +13379,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>4824</v>
+        <v>4055.21</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>6600</v>
+        <v>4006.39</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1560</v>
+        <v>4627.2</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>18559.99</v>
+        <v>4788</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>2800.01</v>
+        <v>4398.41</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>63000</v>
+        <v>4036.01</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>139999.99</v>
+        <v>4790.4</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -13813,7 +13813,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>78000</v>
+        <v>4759.2</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -13875,7 +13875,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>24400.01</v>
+        <v>4438.39</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -13937,7 +13937,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>12000</v>
+        <v>4366.39</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -13997,7 +13997,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>10260</v>
+        <v>4367.21</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>35100</v>
+        <v>4348.01</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -14117,7 +14117,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>24480</v>
+        <v>4339.2</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>3315</v>
+        <v>4470.41</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -14237,7 +14237,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>65100</v>
+        <v>4048.8</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -14297,7 +14297,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>85600.00999999999</v>
+        <v>4243.2</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -14359,7 +14359,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>13260</v>
+        <v>4099.2</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>17599.99</v>
+        <v>4481.59</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>11760</v>
+        <v>4028.81</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -14539,7 +14539,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>571.99</v>
+        <v>4040.81</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -14599,7 +14599,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>3115.99</v>
+        <v>4661.59</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -14659,7 +14659,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>45720</v>
+        <v>4108.8</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>10200</v>
+        <v>4204.8</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>72000</v>
+        <v>4116</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>27600</v>
+        <v>4471.99</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>158374.11</v>
+        <v>4043.9</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -14959,7 +14959,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>29767.5</v>
+        <v>3742.2</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -15019,7 +15019,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>20475</v>
+        <v>3707.9</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>38892</v>
+        <v>4174.1</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>15669.5</v>
+        <v>3973.9</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>49045.92</v>
+        <v>4556</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>200558.76</v>
+        <v>4646.1</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>120534.66</v>
+        <v>4849.25</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>180116.43</v>
+        <v>4660.55</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -15439,7 +15439,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>87875.03999999999</v>
+        <v>4345.2</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>229743.78</v>
+        <v>4387.7</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -15559,7 +15559,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>49852.5</v>
+        <v>4346.9</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -15619,7 +15619,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2550</v>
+        <v>4667.35</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -15679,7 +15679,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>97879.59</v>
+        <v>4357.95</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>44529.36</v>
+        <v>4738.75</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>24225</v>
+        <v>4522.85</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>58718</v>
+        <v>4458.25</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>602236.05</v>
+        <v>4349.45</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -15979,7 +15979,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>408000</v>
+        <v>4845.85</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -16039,7 +16039,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>507284.25</v>
+        <v>4262.75</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>36645.93</v>
+        <v>4826.3</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>92820</v>
+        <v>4968.25</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>33468.75</v>
+        <v>4513.5</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>93712.5</v>
+        <v>4293.35</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -16339,7 +16339,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>183468.66</v>
+        <v>4514.35</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>30929.58</v>
+        <v>4971.65</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -16459,7 +16459,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>73702.14</v>
+        <v>4488.85</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -16519,7 +16519,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>213290.79</v>
+        <v>4585.75</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>31683.75</v>
+        <v>4582.35</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -16639,7 +16639,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>26922.9</v>
+        <v>4386.85</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>18275</v>
+        <v>4754.05</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -16759,7 +16759,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>123250</v>
+        <v>4368.15</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -16819,7 +16819,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>30827.12</v>
+        <v>4601.9</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -16879,7 +16879,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>70720</v>
+        <v>4789.75</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>63537.5</v>
+        <v>4629.95</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -16999,7 +16999,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>119510</v>
+        <v>4635.05</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -17059,7 +17059,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>114058.32</v>
+        <v>4879</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -17119,7 +17119,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>3315</v>
+        <v>4766.8</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>799999.99</v>
+        <v>4787.21</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -17239,7 +17239,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>93600</v>
+        <v>4650.41</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>132000</v>
+        <v>4526.4</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -17359,7 +17359,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>37999.99</v>
+        <v>4299.19</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>58800</v>
+        <v>4144.8</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>40639.99</v>
+        <v>4355.21</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -17539,7 +17539,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>37600.01</v>
+        <v>4216.8</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -17599,7 +17599,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>76800</v>
+        <v>4453.61</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>176640</v>
+        <v>4596</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>52000.01</v>
+        <v>4618.39</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>69600</v>
+        <v>4663.2</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -17843,7 +17843,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>112000.01</v>
+        <v>4624.8</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -17905,7 +17905,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>76000.00999999999</v>
+        <v>4150.39</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>48000</v>
+        <v>4338.41</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>337999.99</v>
+        <v>4039.99</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -18089,7 +18089,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>6760.01</v>
+        <v>4077.6</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -18151,7 +18151,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>48000</v>
+        <v>4492.01</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>18720</v>
+        <v>4188.79</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -18275,7 +18275,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>94744.00999999999</v>
+        <v>4635.19</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -18337,7 +18337,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>7150.01</v>
+        <v>4651.2</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -18399,7 +18399,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>160000.01</v>
+        <v>4721.59</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -18461,7 +18461,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>945888</v>
+        <v>4137.6</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>96000</v>
+        <v>4099.2</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -18581,7 +18581,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>63040.01</v>
+        <v>4692</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -18641,7 +18641,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>40080</v>
+        <v>4437.6</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>150400.01</v>
+        <v>4015.2</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -18761,7 +18761,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>36400.01</v>
+        <v>4756.8</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>108000</v>
+        <v>4929.3</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
